--- a/doc/学習プログラム仕様/単体テスト_アカウント名変更.xlsx
+++ b/doc/学習プログラム仕様/単体テスト_アカウント名変更.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\RESTART-Training\Boot-Camp\work\new\doc\完了\学習プログラム仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\RESTART-Training\Boot-Camp\work\new\doc\学習プログラム仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E0CAA-AF32-4F28-A542-EF6AC74A9F21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091D2797-B80E-4F6A-90F3-74F5B6CDC9B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="1515" windowWidth="17415" windowHeight="9855" tabRatio="942" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アカウントユーザーIDチェックが正しく行われること。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ダイアログが閉じられ、処理が中断すること。</t>
     <rPh sb="6" eb="7">
       <t>ト</t>
@@ -272,6 +268,10 @@
     <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウントIDチェックが正しく行われること。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6140,7 +6140,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G7" sqref="G7:I8"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -6158,7 +6158,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="9"/>
     </row>
@@ -6317,7 +6317,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
       <c r="G10" s="29" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -6355,7 +6355,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
       <c r="G12" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -6394,7 +6394,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="16"/>
       <c r="H14" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="24"/>
@@ -6415,7 +6415,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="26"/>
@@ -6432,7 +6432,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="16"/>
       <c r="H16" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
@@ -6453,7 +6453,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="26"/>
@@ -6485,7 +6485,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
       <c r="G19" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -6505,7 +6505,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -6525,7 +6525,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -6543,7 +6543,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -6564,7 +6564,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="24"/>
@@ -6581,7 +6581,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -6602,7 +6602,7 @@
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
@@ -6622,7 +6622,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="24"/>
